--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6144,12 +6144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6164,11 +6170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6472,8 +6479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="H574" sqref="H574"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15839,7 +15846,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -15868,7 +15875,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="4" t="s">
         <v>1035</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -15900,7 +15907,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="4" t="s">
         <v>1036</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -15932,7 +15939,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="4" t="s">
         <v>1037</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -15964,7 +15971,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="4" t="s">
         <v>1038</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -15996,7 +16003,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="4" t="s">
         <v>1039</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -16025,7 +16032,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="4" t="s">
         <v>1040</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -16057,7 +16064,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="4" t="s">
         <v>1041</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -16089,7 +16096,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="4" t="s">
         <v>1042</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -16118,7 +16125,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -16150,7 +16157,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="4" t="s">
         <v>1044</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -16182,7 +16189,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -16214,7 +16221,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="4" t="s">
         <v>1046</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -16243,7 +16250,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -16275,7 +16282,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="4" t="s">
         <v>1064</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -16307,7 +16314,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -16339,7 +16346,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="4" t="s">
         <v>1066</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -16368,7 +16375,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="4" t="s">
         <v>1067</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -16400,7 +16407,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="4" t="s">
         <v>1068</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -16432,7 +16439,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="4" t="s">
         <v>1069</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -16461,7 +16468,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="4" t="s">
         <v>1070</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -16493,7 +16500,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="4" t="s">
         <v>1071</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -16525,7 +16532,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="4" t="s">
         <v>1072</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -16557,7 +16564,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="4" t="s">
         <v>1073</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -16589,7 +16596,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="4" t="s">
         <v>1074</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -16618,7 +16625,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="4" t="s">
         <v>1075</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -16650,7 +16657,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="4" t="s">
         <v>1076</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -16682,7 +16689,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="4" t="s">
         <v>1099</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -16714,7 +16721,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="4" t="s">
         <v>1100</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -16746,7 +16753,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="4" t="s">
         <v>1101</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -16778,7 +16785,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="4" t="s">
         <v>1102</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -16810,7 +16817,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="4" t="s">
         <v>1103</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -16842,7 +16849,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="4" t="s">
         <v>1104</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -16874,7 +16881,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -16906,7 +16913,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="4" t="s">
         <v>1106</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -16938,7 +16945,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="4" t="s">
         <v>1107</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -16970,7 +16977,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="4" t="s">
         <v>1108</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -17002,7 +17009,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="4" t="s">
         <v>1109</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -17034,7 +17041,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="4" t="s">
         <v>1110</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -17066,7 +17073,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="4" t="s">
         <v>1111</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -17098,7 +17105,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="4" t="s">
         <v>1142</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -17130,7 +17137,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="4" t="s">
         <v>1143</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -17162,7 +17169,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="4" t="s">
         <v>1144</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -17194,7 +17201,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="4" t="s">
         <v>1145</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -17226,7 +17233,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="4" t="s">
         <v>1146</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -17258,7 +17265,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="4" t="s">
         <v>1147</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -17290,7 +17297,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="4" t="s">
         <v>1148</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -17322,7 +17329,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="4" t="s">
         <v>1149</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -17354,7 +17361,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="4" t="s">
         <v>1150</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -17386,7 +17393,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -17418,7 +17425,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="4" t="s">
         <v>1152</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -17450,7 +17457,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="4" t="s">
         <v>1153</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -17482,7 +17489,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="4" t="s">
         <v>1154</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -17514,7 +17521,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="4" t="s">
         <v>1174</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -17546,7 +17553,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -17578,7 +17585,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="4" t="s">
         <v>1176</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -17610,7 +17617,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -17642,7 +17649,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -17674,7 +17681,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="4" t="s">
         <v>1179</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -17706,7 +17713,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="4" t="s">
         <v>1180</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -17738,7 +17745,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="4" t="s">
         <v>1181</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -17770,7 +17777,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="4" t="s">
         <v>1182</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -17802,7 +17809,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="4" t="s">
         <v>1183</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -17834,7 +17841,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="4" t="s">
         <v>1184</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -17866,7 +17873,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="4" t="s">
         <v>1185</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -17898,7 +17905,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="4" t="s">
         <v>1186</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -17930,7 +17937,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="4" t="s">
         <v>1212</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -17962,7 +17969,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="4" t="s">
         <v>1213</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -17994,7 +18001,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="4" t="s">
         <v>1214</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -18026,7 +18033,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="4" t="s">
         <v>1215</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -18058,7 +18065,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="4" t="s">
         <v>1216</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -18090,7 +18097,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="4" t="s">
         <v>1217</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -18122,7 +18129,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="4" t="s">
         <v>1218</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -18154,7 +18161,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="4" t="s">
         <v>1219</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -18186,7 +18193,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="4" t="s">
         <v>1220</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -18218,7 +18225,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="4" t="s">
         <v>1221</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -18250,7 +18257,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="4" t="s">
         <v>1222</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -18282,7 +18289,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="4" t="s">
         <v>1223</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -18314,7 +18321,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="4" t="s">
         <v>1224</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -18346,7 +18353,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="4" t="s">
         <v>1225</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -18378,7 +18385,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="4" t="s">
         <v>1226</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -18410,7 +18417,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="4" t="s">
         <v>1227</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -18442,7 +18449,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="4" t="s">
         <v>1228</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -18474,7 +18481,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="4" t="s">
         <v>1229</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -18506,7 +18513,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="4" t="s">
         <v>1230</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -18538,7 +18545,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -18570,7 +18577,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="4" t="s">
         <v>1232</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -18602,7 +18609,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="4" t="s">
         <v>1233</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -18634,7 +18641,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="4" t="s">
         <v>1234</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -18666,7 +18673,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="4" t="s">
         <v>1235</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -18698,7 +18705,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="4" t="s">
         <v>1236</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -18730,7 +18737,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -18762,7 +18769,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="4" t="s">
         <v>1238</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -18794,7 +18801,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -18826,7 +18833,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="4" t="s">
         <v>1240</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -18858,7 +18865,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="4" t="s">
         <v>1241</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -18890,7 +18897,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -18922,7 +18929,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="4" t="s">
         <v>1243</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -18954,7 +18961,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="4" t="s">
         <v>1244</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -18986,7 +18993,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -19018,7 +19025,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="4" t="s">
         <v>1246</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -19050,7 +19057,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -19082,7 +19089,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="4" t="s">
         <v>1307</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -19114,7 +19121,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="4" t="s">
         <v>1308</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -19143,7 +19150,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="4" t="s">
         <v>1309</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -19175,7 +19182,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="4" t="s">
         <v>1327</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -19547,7 +19554,7 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="4" t="s">
         <v>1426</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -19573,7 +19580,7 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="4" t="s">
         <v>1441</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -19599,7 +19606,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="4" t="s">
         <v>1379</v>
       </c>
       <c r="B455" s="1" t="s">
@@ -19628,7 +19635,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="4" t="s">
         <v>1380</v>
       </c>
       <c r="B456" s="1" t="s">
@@ -19657,7 +19664,7 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="4" t="s">
         <v>1381</v>
       </c>
       <c r="B457" s="1" t="s">
@@ -19686,7 +19693,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="B458" s="1" t="s">
@@ -19715,7 +19722,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="4" t="s">
         <v>1383</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -19744,7 +19751,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="4" t="s">
         <v>1384</v>
       </c>
       <c r="B460" s="1" t="s">
@@ -19770,7 +19777,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="4" t="s">
         <v>1434</v>
       </c>
       <c r="B461" s="1" t="s">
@@ -19799,7 +19806,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="4" t="s">
         <v>1385</v>
       </c>
       <c r="B462" s="1" t="s">
@@ -19828,7 +19835,7 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="4" t="s">
         <v>1386</v>
       </c>
       <c r="B463" s="1" t="s">
@@ -19857,7 +19864,7 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="4" t="s">
         <v>1387</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -19886,7 +19893,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="4" t="s">
         <v>1388</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -19915,7 +19922,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="4" t="s">
         <v>1389</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -19944,7 +19951,7 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="4" t="s">
         <v>1390</v>
       </c>
       <c r="B467" s="1" t="s">
@@ -19973,7 +19980,7 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="4" t="s">
         <v>1449</v>
       </c>
       <c r="B468" s="1" t="s">
@@ -19999,7 +20006,7 @@
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="4" t="s">
         <v>1391</v>
       </c>
       <c r="B469" s="1" t="s">
@@ -20028,7 +20035,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="4" t="s">
         <v>1392</v>
       </c>
       <c r="B470" s="1" t="s">
@@ -20057,7 +20064,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="4" t="s">
         <v>1393</v>
       </c>
       <c r="B471" s="1" t="s">
@@ -20086,7 +20093,7 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -20115,7 +20122,7 @@
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="4" t="s">
         <v>1395</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -20144,7 +20151,7 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="4" t="s">
         <v>1396</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -20173,7 +20180,7 @@
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="4" t="s">
         <v>1397</v>
       </c>
       <c r="B475" s="1" t="s">
@@ -20202,7 +20209,7 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="4" t="s">
         <v>1398</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -20231,7 +20238,7 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="B477" s="1" t="s">
@@ -20260,7 +20267,7 @@
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="4" t="s">
         <v>1400</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -20289,7 +20296,7 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="4" t="s">
         <v>1401</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -20318,7 +20325,7 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="4" t="s">
         <v>1464</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -20344,7 +20351,7 @@
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="4" t="s">
         <v>1402</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -20373,7 +20380,7 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="4" t="s">
         <v>1403</v>
       </c>
       <c r="B482" s="1" t="s">
@@ -20402,7 +20409,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="4" t="s">
         <v>1404</v>
       </c>
       <c r="B483" s="1" t="s">
@@ -20431,7 +20438,7 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="4" t="s">
         <v>1405</v>
       </c>
       <c r="B484" s="1" t="s">
@@ -20460,7 +20467,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="4" t="s">
         <v>1406</v>
       </c>
       <c r="B485" s="1" t="s">
@@ -20489,7 +20496,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="4" t="s">
         <v>1407</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -20518,7 +20525,7 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="B487" s="1" t="s">
@@ -20547,7 +20554,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="4" t="s">
         <v>1409</v>
       </c>
       <c r="B488" s="1" t="s">
@@ -20576,7 +20583,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="4" t="s">
         <v>1410</v>
       </c>
       <c r="B489" s="1" t="s">
@@ -20605,7 +20612,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="4" t="s">
         <v>1411</v>
       </c>
       <c r="B490" s="1" t="s">
@@ -20634,7 +20641,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="4" t="s">
         <v>1412</v>
       </c>
       <c r="B491" s="1" t="s">
@@ -20663,7 +20670,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="4" t="s">
         <v>1413</v>
       </c>
       <c r="B492" s="1" t="s">
@@ -20692,7 +20699,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="4" t="s">
         <v>1487</v>
       </c>
       <c r="B493" s="1" t="s">
@@ -20718,7 +20725,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="B494" s="1" t="s">
@@ -20747,7 +20754,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="4" t="s">
         <v>1415</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -20776,7 +20783,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="4" t="s">
         <v>1416</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -20805,7 +20812,7 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="4" t="s">
         <v>1417</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -20834,7 +20841,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="4" t="s">
         <v>1418</v>
       </c>
       <c r="B498" s="1" t="s">
@@ -20863,7 +20870,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="4" t="s">
         <v>1419</v>
       </c>
       <c r="B499" s="1" t="s">
@@ -20892,7 +20899,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="4" t="s">
         <v>1420</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -20921,7 +20928,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="4" t="s">
         <v>1479</v>
       </c>
       <c r="B501" s="1" t="s">
@@ -20950,7 +20957,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="4" t="s">
         <v>1480</v>
       </c>
       <c r="B502" s="1" t="s">
@@ -20979,7 +20986,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="4" t="s">
         <v>1481</v>
       </c>
       <c r="B503" s="1" t="s">
@@ -21008,7 +21015,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="B504" s="1" t="s">
@@ -21037,7 +21044,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="4" t="s">
         <v>1483</v>
       </c>
       <c r="B505" s="1" t="s">
@@ -21066,7 +21073,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="4" t="s">
         <v>1484</v>
       </c>
       <c r="B506" s="1" t="s">
@@ -21095,7 +21102,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="4" t="s">
         <v>1485</v>
       </c>
       <c r="B507" s="1" t="s">
@@ -21124,7 +21131,7 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="4" t="s">
         <v>1486</v>
       </c>
       <c r="B508" s="1" t="s">
@@ -21153,7 +21160,7 @@
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="4" t="s">
         <v>1511</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -21182,7 +21189,7 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -21208,7 +21215,7 @@
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="4" t="s">
         <v>1512</v>
       </c>
       <c r="B511" s="1" t="s">
@@ -21237,7 +21244,7 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="4" t="s">
         <v>1513</v>
       </c>
       <c r="B512" s="1" t="s">
@@ -21266,7 +21273,7 @@
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="4" t="s">
         <v>1514</v>
       </c>
       <c r="B513" s="1" t="s">
@@ -21295,7 +21302,7 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="4" t="s">
         <v>1515</v>
       </c>
       <c r="B514" s="1" t="s">
@@ -21324,7 +21331,7 @@
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="4" t="s">
         <v>1516</v>
       </c>
       <c r="B515" s="1" t="s">
@@ -21353,7 +21360,7 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="B516" s="1" t="s">
@@ -21382,7 +21389,7 @@
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="4" t="s">
         <v>1530</v>
       </c>
       <c r="B517" s="1" t="s">
@@ -21411,7 +21418,7 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="B518" s="1" t="s">
@@ -21440,7 +21447,7 @@
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -21469,7 +21476,7 @@
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="4" t="s">
         <v>1533</v>
       </c>
       <c r="B520" s="1" t="s">
@@ -21498,7 +21505,7 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="4" t="s">
         <v>1534</v>
       </c>
       <c r="B521" s="1" t="s">
@@ -21527,7 +21534,7 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="4" t="s">
         <v>1535</v>
       </c>
       <c r="B522" s="1" t="s">
@@ -21556,7 +21563,7 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="B523" s="1" t="s">
@@ -21585,7 +21592,7 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="4" t="s">
         <v>1537</v>
       </c>
       <c r="B524" s="1" t="s">
@@ -21614,7 +21621,7 @@
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="4" t="s">
         <v>1538</v>
       </c>
       <c r="B525" s="1" t="s">
@@ -21643,7 +21650,7 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="4" t="s">
         <v>1539</v>
       </c>
       <c r="B526" s="1" t="s">
@@ -21672,7 +21679,7 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="4" t="s">
         <v>1540</v>
       </c>
       <c r="B527" s="1" t="s">
@@ -21701,7 +21708,7 @@
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="4" t="s">
         <v>1541</v>
       </c>
       <c r="B528" s="1" t="s">
@@ -21730,7 +21737,7 @@
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="4" t="s">
         <v>1552</v>
       </c>
       <c r="B529" s="1" t="s">
@@ -21759,7 +21766,7 @@
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="4" t="s">
         <v>1553</v>
       </c>
       <c r="B530" s="1" t="s">
@@ -21788,7 +21795,7 @@
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="B531" s="1" t="s">
@@ -21817,7 +21824,7 @@
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="4" t="s">
         <v>1555</v>
       </c>
       <c r="B532" s="1" t="s">
@@ -21846,7 +21853,7 @@
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="4" t="s">
         <v>1567</v>
       </c>
       <c r="B533" s="1" t="s">
@@ -21875,7 +21882,7 @@
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="4" t="s">
         <v>1568</v>
       </c>
       <c r="B534" s="1" t="s">
@@ -21904,7 +21911,7 @@
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="4" t="s">
         <v>1569</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -21933,7 +21940,7 @@
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="4" t="s">
         <v>1570</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -21962,7 +21969,7 @@
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="4" t="s">
         <v>1571</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -21991,7 +21998,7 @@
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="4" t="s">
         <v>1572</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -22020,7 +22027,7 @@
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="4" t="s">
         <v>1573</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -22049,7 +22056,7 @@
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="4" t="s">
         <v>1574</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -22078,7 +22085,7 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="4" t="s">
         <v>1577</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -22107,7 +22114,7 @@
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="4" t="s">
         <v>1578</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -22136,7 +22143,7 @@
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="B543" s="1" t="s">
@@ -22165,7 +22172,7 @@
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="4" t="s">
         <v>1580</v>
       </c>
       <c r="B544" s="1" t="s">
@@ -22194,7 +22201,7 @@
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="4" t="s">
         <v>1581</v>
       </c>
       <c r="B545" s="1" t="s">
@@ -22223,7 +22230,7 @@
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="4" t="s">
         <v>1582</v>
       </c>
       <c r="B546" s="1" t="s">
@@ -22252,7 +22259,7 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="4" t="s">
         <v>1583</v>
       </c>
       <c r="B547" s="1" t="s">
@@ -22281,7 +22288,7 @@
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="4" t="s">
         <v>1585</v>
       </c>
       <c r="B548" s="1" t="s">
@@ -22310,7 +22317,7 @@
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="B549" s="1" t="s">
@@ -22339,7 +22346,7 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="4" t="s">
         <v>1587</v>
       </c>
       <c r="B550" s="1" t="s">
@@ -22368,7 +22375,7 @@
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="B551" s="1" t="s">
@@ -22397,7 +22404,7 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="4" t="s">
         <v>1589</v>
       </c>
       <c r="B552" s="1" t="s">
@@ -22426,7 +22433,7 @@
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="4" t="s">
         <v>1590</v>
       </c>
       <c r="B553" s="1" t="s">
@@ -22455,7 +22462,7 @@
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="4" t="s">
         <v>1612</v>
       </c>
       <c r="B554" s="1" t="s">
@@ -22484,7 +22491,7 @@
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="4" t="s">
         <v>1613</v>
       </c>
       <c r="B555" s="1" t="s">
@@ -22513,7 +22520,7 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="B556" s="1" t="s">
@@ -22542,7 +22549,7 @@
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="4" t="s">
         <v>1622</v>
       </c>
       <c r="B557" s="1" t="s">
@@ -22568,7 +22575,7 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="4" t="s">
         <v>1615</v>
       </c>
       <c r="B558" s="1" t="s">
@@ -22597,7 +22604,7 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="4" t="s">
         <v>1625</v>
       </c>
       <c r="B559" s="1" t="s">
@@ -22626,7 +22633,7 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="4" t="s">
         <v>1631</v>
       </c>
       <c r="B560" s="1" t="s">

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1666">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6112,6 +6112,25 @@
   </si>
   <si>
     <t>create table my_negativ_236_00(id int,name varchar(32) not null,age int,amount double,address varchar(255),is_delete bool,primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_564</t>
+  </si>
+  <si>
+    <t>删除表判断是否存在，表不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop table if exists myneg_564_schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 24465 (90001): Table MYNEG_564_SCHEMA17 does not exist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6477,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K564"/>
+  <dimension ref="A1:K565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
+      <selection activeCell="E564" sqref="E564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22735,6 +22754,29 @@
         <v>1647</v>
       </c>
       <c r="K564" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A565" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K565" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="1672">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6131,6 +6131,28 @@
   </si>
   <si>
     <t>ERROR 24465 (90001): Table MYNEG_564_SCHEMA17 does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_565</t>
+  </si>
+  <si>
+    <t>创建表指定主键字段名不存在，预期创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_566</t>
+  </si>
+  <si>
+    <t>create table myneg_565(id int, name varchar(20), age int, amount double, birthday date, primary key(id,nama,age))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table myneg_566(uuid varchar(20), phone varchar(11), birthday date, primary key(ppid))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6496,10 +6518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K565"/>
+  <dimension ref="A1:K567"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="E564" sqref="E564"/>
+      <selection activeCell="I570" sqref="I570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22777,6 +22799,46 @@
         <v>1665</v>
       </c>
       <c r="K565" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A566" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A567" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K567" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6520,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" workbookViewId="0">
-      <selection activeCell="I570" sqref="I570"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15891,7 +15891,7 @@
         <v>1049</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1122</v>
@@ -15920,7 +15920,7 @@
         <v>1035</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>1122</v>
@@ -15952,7 +15952,7 @@
         <v>1036</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>1122</v>
@@ -15984,7 +15984,7 @@
         <v>1037</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1122</v>
@@ -16016,7 +16016,7 @@
         <v>1038</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1122</v>
@@ -16048,7 +16048,7 @@
         <v>1039</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1122</v>
@@ -16077,7 +16077,7 @@
         <v>1040</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1122</v>
@@ -16109,7 +16109,7 @@
         <v>1041</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1122</v>
@@ -16141,7 +16141,7 @@
         <v>1042</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1122</v>
@@ -16170,7 +16170,7 @@
         <v>1043</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>1122</v>
@@ -16202,7 +16202,7 @@
         <v>1044</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>1122</v>
@@ -16234,7 +16234,7 @@
         <v>1045</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>1122</v>
@@ -16266,7 +16266,7 @@
         <v>1046</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>1122</v>
@@ -16295,7 +16295,7 @@
         <v>1047</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>1122</v>
@@ -16327,7 +16327,7 @@
         <v>1064</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>1122</v>
@@ -16359,7 +16359,7 @@
         <v>1065</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>1122</v>
@@ -16391,7 +16391,7 @@
         <v>1066</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>1122</v>
@@ -16420,7 +16420,7 @@
         <v>1067</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>1122</v>
@@ -16452,7 +16452,7 @@
         <v>1068</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>1122</v>
@@ -16484,7 +16484,7 @@
         <v>1069</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1122</v>
@@ -16513,7 +16513,7 @@
         <v>1070</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>1122</v>
@@ -16545,7 +16545,7 @@
         <v>1071</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>1122</v>
@@ -16577,7 +16577,7 @@
         <v>1072</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>1122</v>
@@ -16609,7 +16609,7 @@
         <v>1073</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1122</v>
@@ -16641,7 +16641,7 @@
         <v>1074</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>1122</v>
@@ -16670,7 +16670,7 @@
         <v>1075</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>1122</v>
@@ -16702,7 +16702,7 @@
         <v>1076</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>1122</v>
@@ -16734,7 +16734,7 @@
         <v>1099</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>1122</v>
@@ -16766,7 +16766,7 @@
         <v>1100</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>1122</v>
@@ -16798,7 +16798,7 @@
         <v>1101</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>1122</v>
@@ -16830,7 +16830,7 @@
         <v>1102</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>1122</v>
@@ -16862,7 +16862,7 @@
         <v>1103</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>1121</v>
@@ -16894,7 +16894,7 @@
         <v>1104</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>1121</v>
@@ -16926,7 +16926,7 @@
         <v>1105</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>1121</v>
@@ -16958,7 +16958,7 @@
         <v>1106</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>1121</v>
@@ -16990,7 +16990,7 @@
         <v>1107</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>1121</v>
@@ -17022,7 +17022,7 @@
         <v>1108</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>1121</v>
@@ -17054,7 +17054,7 @@
         <v>1109</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>1121</v>
@@ -17086,7 +17086,7 @@
         <v>1110</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1121</v>
@@ -17118,7 +17118,7 @@
         <v>1111</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>1121</v>
@@ -17150,7 +17150,7 @@
         <v>1142</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1121</v>
@@ -17182,7 +17182,7 @@
         <v>1143</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>1121</v>
@@ -17214,7 +17214,7 @@
         <v>1144</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>1121</v>
@@ -17246,7 +17246,7 @@
         <v>1145</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>1121</v>
@@ -17278,7 +17278,7 @@
         <v>1146</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1121</v>
@@ -17310,7 +17310,7 @@
         <v>1147</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1121</v>
@@ -17342,7 +17342,7 @@
         <v>1148</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>1121</v>
@@ -17374,7 +17374,7 @@
         <v>1149</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>1121</v>
@@ -17406,7 +17406,7 @@
         <v>1150</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1121</v>
@@ -17438,7 +17438,7 @@
         <v>1151</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1121</v>
@@ -17470,7 +17470,7 @@
         <v>1152</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1121</v>
@@ -17502,7 +17502,7 @@
         <v>1153</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1121</v>
@@ -17534,7 +17534,7 @@
         <v>1154</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1121</v>
@@ -17566,7 +17566,7 @@
         <v>1174</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1121</v>
@@ -17598,7 +17598,7 @@
         <v>1175</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1121</v>
@@ -17630,7 +17630,7 @@
         <v>1176</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1121</v>
@@ -17662,7 +17662,7 @@
         <v>1177</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>1121</v>
@@ -17694,7 +17694,7 @@
         <v>1178</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1121</v>
@@ -17726,7 +17726,7 @@
         <v>1179</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>1121</v>
@@ -17758,7 +17758,7 @@
         <v>1180</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1121</v>
@@ -17790,7 +17790,7 @@
         <v>1181</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1121</v>
@@ -17822,7 +17822,7 @@
         <v>1182</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1121</v>
@@ -17854,7 +17854,7 @@
         <v>1183</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1247</v>
@@ -17886,7 +17886,7 @@
         <v>1184</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1247</v>
@@ -17918,7 +17918,7 @@
         <v>1185</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1247</v>
@@ -17950,7 +17950,7 @@
         <v>1186</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1247</v>
@@ -17982,7 +17982,7 @@
         <v>1212</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1247</v>
@@ -18014,7 +18014,7 @@
         <v>1213</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1247</v>
@@ -18046,7 +18046,7 @@
         <v>1214</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1247</v>
@@ -18078,7 +18078,7 @@
         <v>1215</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>1247</v>
@@ -18110,7 +18110,7 @@
         <v>1216</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>1247</v>
@@ -18142,7 +18142,7 @@
         <v>1217</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1247</v>
@@ -18174,7 +18174,7 @@
         <v>1218</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1247</v>
@@ -18206,7 +18206,7 @@
         <v>1219</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>1247</v>
@@ -18238,7 +18238,7 @@
         <v>1220</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>1247</v>
@@ -18270,7 +18270,7 @@
         <v>1221</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1247</v>
@@ -18302,7 +18302,7 @@
         <v>1222</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1247</v>
@@ -18334,7 +18334,7 @@
         <v>1223</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>1247</v>
@@ -18366,7 +18366,7 @@
         <v>1224</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1247</v>
@@ -18398,7 +18398,7 @@
         <v>1225</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1247</v>
@@ -18430,7 +18430,7 @@
         <v>1226</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1247</v>
@@ -18462,7 +18462,7 @@
         <v>1227</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1247</v>
@@ -18494,7 +18494,7 @@
         <v>1228</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1247</v>
@@ -18526,7 +18526,7 @@
         <v>1229</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1247</v>
@@ -18558,7 +18558,7 @@
         <v>1230</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1247</v>
@@ -18590,7 +18590,7 @@
         <v>1231</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1286</v>
@@ -18622,7 +18622,7 @@
         <v>1232</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1286</v>
@@ -18654,7 +18654,7 @@
         <v>1233</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1286</v>
@@ -18686,7 +18686,7 @@
         <v>1234</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1286</v>
@@ -18718,7 +18718,7 @@
         <v>1235</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1286</v>
@@ -18750,7 +18750,7 @@
         <v>1236</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1286</v>
@@ -18782,7 +18782,7 @@
         <v>1237</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1286</v>
@@ -18814,7 +18814,7 @@
         <v>1238</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1294</v>
@@ -18846,7 +18846,7 @@
         <v>1239</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1294</v>
@@ -18878,7 +18878,7 @@
         <v>1240</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1294</v>
@@ -18910,7 +18910,7 @@
         <v>1241</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>1294</v>
@@ -18942,7 +18942,7 @@
         <v>1242</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1294</v>
@@ -18974,7 +18974,7 @@
         <v>1243</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1294</v>
@@ -19006,7 +19006,7 @@
         <v>1244</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1305</v>
@@ -19038,7 +19038,7 @@
         <v>1245</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>1305</v>
@@ -19070,7 +19070,7 @@
         <v>1246</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>1305</v>
@@ -19102,7 +19102,7 @@
         <v>1306</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>1305</v>
@@ -19134,7 +19134,7 @@
         <v>1307</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1305</v>
@@ -19166,7 +19166,7 @@
         <v>1308</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>1320</v>
@@ -19195,7 +19195,7 @@
         <v>1309</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>1320</v>
@@ -19227,7 +19227,7 @@
         <v>1327</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>1328</v>
@@ -19255,11 +19255,11 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="4" t="s">
         <v>1332</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1634</v>
+        <v>25</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>1333</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6520,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="B569" sqref="B569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22784,7 +22784,7 @@
         <v>1661</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>25</v>
+        <v>1634</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>1662</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="1683">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6153,6 +6153,51 @@
   </si>
   <si>
     <t>create table myneg_566(uuid varchar(20), phone varchar(11), birthday date, primary key(ppid))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_567</t>
+  </si>
+  <si>
+    <t>创建中文表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table `集成测试2`(id int, name varchar(20), primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Table name currently only supports uppercase letters, digits, and underscores</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_568</t>
+  </si>
+  <si>
+    <t>创建表指定字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE `myneg_568` (
+  `uuid` varchar(20) NOT NULL,
+  `amount` double DEFAULT NULL,
+  PRIMARY KEY (`uuid`)
+) DEFAULT CHARSET=utf8mb4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_569</t>
+  </si>
+  <si>
+    <t>创建表字段为中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table `myneg_569` (`id` int, `姓名` varchar(20), primary key(`id`))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Invalid column value for ''</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6211,12 +6256,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6518,10 +6566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K567"/>
+  <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="B569" sqref="B569"/>
+    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="F578" sqref="F578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22839,6 +22887,72 @@
         <v>1671</v>
       </c>
       <c r="K567" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A568" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A569" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I569" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A570" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K570" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6230,7 +6230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6240,6 +6240,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6256,7 +6262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6265,6 +6271,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6568,8 +6575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="C569" sqref="C569"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7287,11 +7294,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -7313,11 +7320,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>130</v>
@@ -7339,11 +7346,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>130</v>
@@ -7365,11 +7372,11 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>130</v>
@@ -7391,11 +7398,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>130</v>
@@ -7417,11 +7424,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>130</v>
@@ -7443,11 +7450,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>130</v>
@@ -7469,11 +7476,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>130</v>
@@ -7495,11 +7502,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>130</v>
@@ -7521,11 +7528,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>130</v>
@@ -7547,11 +7554,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>130</v>
@@ -7573,11 +7580,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>130</v>
@@ -7599,11 +7606,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>130</v>
@@ -7781,11 +7788,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>178</v>
@@ -7807,11 +7814,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>178</v>
@@ -7833,11 +7840,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>178</v>
@@ -7859,11 +7866,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>178</v>
@@ -7885,11 +7892,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>178</v>
@@ -7911,11 +7918,11 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>178</v>
@@ -7937,11 +7944,11 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>178</v>
@@ -7963,11 +7970,11 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>178</v>
@@ -7989,11 +7996,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>178</v>
@@ -8015,11 +8022,11 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>178</v>
@@ -8041,11 +8048,11 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>178</v>
@@ -8067,11 +8074,11 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>178</v>
@@ -8093,11 +8100,11 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>195</v>
@@ -8119,11 +8126,11 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>195</v>
@@ -8145,11 +8152,11 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>195</v>
@@ -11286,11 +11293,11 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="6" t="s">
         <v>495</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>533</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6174,30 +6174,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>negative_569</t>
+  </si>
+  <si>
+    <t>创建表字段为中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table `myneg_569` (`id` int, `姓名` varchar(20), primary key(`id`))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR 9001 (45000): Invalid column value for ''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into $schema1 values(1,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE TABLE `myneg_568` (
   `uuid` varchar(20) NOT NULL,
   `amount` double DEFAULT NULL,
   PRIMARY KEY (`uuid`)
 ) DEFAULT CHARSET=utf8mb4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>negative_569</t>
-  </si>
-  <si>
-    <t>创建表字段为中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table `myneg_569` (`id` int, `姓名` varchar(20), primary key(`id`))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR 9001 (45000): Invalid column value for ''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into $schema1 values(1,'zhangsan',18,23.50,'beijing','1998-04-06','08:10:10')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6262,7 +6262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -6272,6 +6272,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6575,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="B543" workbookViewId="0">
+      <selection activeCell="H574" sqref="H574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12669,11 +12670,11 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="6" t="s">
         <v>684</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>664</v>
@@ -12698,11 +12699,11 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="6" t="s">
         <v>685</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>664</v>
@@ -12727,11 +12728,11 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="6" t="s">
         <v>686</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>664</v>
@@ -12756,11 +12757,11 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="6" t="s">
         <v>692</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>664</v>
@@ -15308,7 +15309,7 @@
         <v>1021</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>940</v>
@@ -15942,7 +15943,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="7" t="s">
         <v>1048</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -15971,7 +15972,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="7" t="s">
         <v>1034</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -16003,7 +16004,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -16035,7 +16036,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="7" t="s">
         <v>1036</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -16067,7 +16068,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="7" t="s">
         <v>1037</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -16099,7 +16100,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="7" t="s">
         <v>1038</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -16128,7 +16129,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="7" t="s">
         <v>1039</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -16160,7 +16161,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A343" s="4" t="s">
+      <c r="A343" s="7" t="s">
         <v>1040</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -16192,7 +16193,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="7" t="s">
         <v>1041</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -16221,7 +16222,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="7" t="s">
         <v>1042</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -16253,7 +16254,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A346" s="4" t="s">
+      <c r="A346" s="7" t="s">
         <v>1043</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -16285,7 +16286,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="7" t="s">
         <v>1044</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -16317,7 +16318,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A348" s="4" t="s">
+      <c r="A348" s="7" t="s">
         <v>1045</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -16346,7 +16347,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A349" s="4" t="s">
+      <c r="A349" s="7" t="s">
         <v>1046</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -16378,7 +16379,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A350" s="4" t="s">
+      <c r="A350" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -16410,7 +16411,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A351" s="4" t="s">
+      <c r="A351" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -16442,7 +16443,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A352" s="4" t="s">
+      <c r="A352" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -16471,7 +16472,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A353" s="4" t="s">
+      <c r="A353" s="7" t="s">
         <v>1066</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -16503,7 +16504,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A354" s="4" t="s">
+      <c r="A354" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -16535,7 +16536,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A355" s="4" t="s">
+      <c r="A355" s="7" t="s">
         <v>1068</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -16564,7 +16565,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A356" s="4" t="s">
+      <c r="A356" s="7" t="s">
         <v>1069</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -16596,7 +16597,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="7" t="s">
         <v>1070</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -16628,7 +16629,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A358" s="4" t="s">
+      <c r="A358" s="7" t="s">
         <v>1071</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -16660,7 +16661,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A359" s="4" t="s">
+      <c r="A359" s="7" t="s">
         <v>1072</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -16692,7 +16693,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A360" s="4" t="s">
+      <c r="A360" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -16721,7 +16722,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A361" s="4" t="s">
+      <c r="A361" s="7" t="s">
         <v>1074</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -16753,7 +16754,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A362" s="4" t="s">
+      <c r="A362" s="7" t="s">
         <v>1075</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -16785,7 +16786,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A363" s="4" t="s">
+      <c r="A363" s="7" t="s">
         <v>1098</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -16817,7 +16818,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A364" s="4" t="s">
+      <c r="A364" s="7" t="s">
         <v>1099</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -16849,7 +16850,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A365" s="4" t="s">
+      <c r="A365" s="7" t="s">
         <v>1100</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -16881,7 +16882,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A366" s="4" t="s">
+      <c r="A366" s="7" t="s">
         <v>1101</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -16913,7 +16914,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A367" s="4" t="s">
+      <c r="A367" s="7" t="s">
         <v>1102</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -16945,7 +16946,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A368" s="4" t="s">
+      <c r="A368" s="7" t="s">
         <v>1103</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -16977,7 +16978,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="7" t="s">
         <v>1104</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -17009,7 +17010,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A370" s="4" t="s">
+      <c r="A370" s="7" t="s">
         <v>1105</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -17041,7 +17042,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A371" s="4" t="s">
+      <c r="A371" s="7" t="s">
         <v>1106</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -17073,7 +17074,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A372" s="4" t="s">
+      <c r="A372" s="7" t="s">
         <v>1107</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -17105,7 +17106,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A373" s="4" t="s">
+      <c r="A373" s="7" t="s">
         <v>1108</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -17137,7 +17138,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A374" s="4" t="s">
+      <c r="A374" s="7" t="s">
         <v>1109</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -17169,7 +17170,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A375" s="4" t="s">
+      <c r="A375" s="7" t="s">
         <v>1110</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -17201,7 +17202,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A376" s="4" t="s">
+      <c r="A376" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -17233,7 +17234,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A377" s="4" t="s">
+      <c r="A377" s="7" t="s">
         <v>1142</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -17265,7 +17266,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A378" s="4" t="s">
+      <c r="A378" s="7" t="s">
         <v>1143</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -17297,7 +17298,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A379" s="4" t="s">
+      <c r="A379" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -17329,7 +17330,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A380" s="4" t="s">
+      <c r="A380" s="7" t="s">
         <v>1145</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -17361,7 +17362,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A381" s="4" t="s">
+      <c r="A381" s="7" t="s">
         <v>1146</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -17393,7 +17394,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A382" s="4" t="s">
+      <c r="A382" s="7" t="s">
         <v>1147</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -17425,7 +17426,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A383" s="4" t="s">
+      <c r="A383" s="7" t="s">
         <v>1148</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -17457,7 +17458,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A384" s="4" t="s">
+      <c r="A384" s="7" t="s">
         <v>1149</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -17489,7 +17490,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A385" s="4" t="s">
+      <c r="A385" s="7" t="s">
         <v>1150</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -17521,7 +17522,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A386" s="4" t="s">
+      <c r="A386" s="7" t="s">
         <v>1151</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -17553,7 +17554,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A387" s="4" t="s">
+      <c r="A387" s="7" t="s">
         <v>1152</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -17585,7 +17586,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A388" s="4" t="s">
+      <c r="A388" s="7" t="s">
         <v>1153</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -17617,7 +17618,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="7" t="s">
         <v>1173</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -17649,7 +17650,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A390" s="4" t="s">
+      <c r="A390" s="7" t="s">
         <v>1174</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -17681,7 +17682,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A391" s="4" t="s">
+      <c r="A391" s="7" t="s">
         <v>1175</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -17713,7 +17714,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A392" s="4" t="s">
+      <c r="A392" s="7" t="s">
         <v>1176</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -17745,7 +17746,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A393" s="4" t="s">
+      <c r="A393" s="7" t="s">
         <v>1177</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -17777,7 +17778,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A394" s="4" t="s">
+      <c r="A394" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -17809,7 +17810,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A395" s="4" t="s">
+      <c r="A395" s="7" t="s">
         <v>1179</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -17841,7 +17842,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A396" s="4" t="s">
+      <c r="A396" s="7" t="s">
         <v>1180</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -17873,7 +17874,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A397" s="4" t="s">
+      <c r="A397" s="7" t="s">
         <v>1181</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -17905,7 +17906,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A398" s="4" t="s">
+      <c r="A398" s="7" t="s">
         <v>1182</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -17937,7 +17938,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A399" s="4" t="s">
+      <c r="A399" s="7" t="s">
         <v>1183</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -17969,7 +17970,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A400" s="4" t="s">
+      <c r="A400" s="7" t="s">
         <v>1184</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -18001,7 +18002,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="7" t="s">
         <v>1185</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -18033,7 +18034,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A402" s="4" t="s">
+      <c r="A402" s="7" t="s">
         <v>1211</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -18065,7 +18066,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A403" s="4" t="s">
+      <c r="A403" s="7" t="s">
         <v>1212</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -18097,7 +18098,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A404" s="4" t="s">
+      <c r="A404" s="7" t="s">
         <v>1213</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -18129,7 +18130,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A405" s="4" t="s">
+      <c r="A405" s="7" t="s">
         <v>1214</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -18161,7 +18162,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A406" s="4" t="s">
+      <c r="A406" s="7" t="s">
         <v>1215</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -18193,11 +18194,11 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A407" s="4" t="s">
+      <c r="A407" s="6" t="s">
         <v>1216</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1246</v>
@@ -18225,11 +18226,11 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A408" s="4" t="s">
+      <c r="A408" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>25</v>
+        <v>1633</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1246</v>
@@ -18257,7 +18258,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A409" s="4" t="s">
+      <c r="A409" s="7" t="s">
         <v>1218</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -18289,7 +18290,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A410" s="4" t="s">
+      <c r="A410" s="7" t="s">
         <v>1219</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -18321,7 +18322,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A411" s="4" t="s">
+      <c r="A411" s="7" t="s">
         <v>1220</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -18353,7 +18354,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A412" s="4" t="s">
+      <c r="A412" s="7" t="s">
         <v>1221</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -18385,7 +18386,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A413" s="4" t="s">
+      <c r="A413" s="7" t="s">
         <v>1222</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -18417,7 +18418,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A414" s="4" t="s">
+      <c r="A414" s="7" t="s">
         <v>1223</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -18449,7 +18450,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A415" s="4" t="s">
+      <c r="A415" s="7" t="s">
         <v>1224</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -18481,7 +18482,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A416" s="4" t="s">
+      <c r="A416" s="7" t="s">
         <v>1225</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -18513,7 +18514,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A417" s="4" t="s">
+      <c r="A417" s="7" t="s">
         <v>1226</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -18545,7 +18546,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A418" s="4" t="s">
+      <c r="A418" s="7" t="s">
         <v>1227</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -18577,7 +18578,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A419" s="4" t="s">
+      <c r="A419" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -18609,7 +18610,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A420" s="4" t="s">
+      <c r="A420" s="7" t="s">
         <v>1229</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -18641,7 +18642,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A421" s="4" t="s">
+      <c r="A421" s="7" t="s">
         <v>1230</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -18673,7 +18674,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A422" s="4" t="s">
+      <c r="A422" s="7" t="s">
         <v>1231</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -18705,7 +18706,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A423" s="4" t="s">
+      <c r="A423" s="7" t="s">
         <v>1232</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -18737,7 +18738,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A424" s="4" t="s">
+      <c r="A424" s="7" t="s">
         <v>1233</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -18769,7 +18770,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="7" t="s">
         <v>1234</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -18801,7 +18802,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A426" s="4" t="s">
+      <c r="A426" s="7" t="s">
         <v>1235</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -18833,7 +18834,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A427" s="4" t="s">
+      <c r="A427" s="7" t="s">
         <v>1236</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -18865,7 +18866,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A428" s="4" t="s">
+      <c r="A428" s="7" t="s">
         <v>1237</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -18897,7 +18898,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="7" t="s">
         <v>1238</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -18929,7 +18930,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A430" s="4" t="s">
+      <c r="A430" s="7" t="s">
         <v>1239</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -18961,7 +18962,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A431" s="4" t="s">
+      <c r="A431" s="7" t="s">
         <v>1240</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -18993,7 +18994,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A432" s="4" t="s">
+      <c r="A432" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -19025,7 +19026,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A433" s="4" t="s">
+      <c r="A433" s="7" t="s">
         <v>1242</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -19057,7 +19058,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A434" s="4" t="s">
+      <c r="A434" s="7" t="s">
         <v>1243</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -19089,7 +19090,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A435" s="4" t="s">
+      <c r="A435" s="7" t="s">
         <v>1244</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -19121,7 +19122,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A436" s="4" t="s">
+      <c r="A436" s="7" t="s">
         <v>1245</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -19153,7 +19154,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A437" s="4" t="s">
+      <c r="A437" s="7" t="s">
         <v>1305</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -19185,7 +19186,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A438" s="4" t="s">
+      <c r="A438" s="7" t="s">
         <v>1306</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -19217,7 +19218,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A439" s="4" t="s">
+      <c r="A439" s="7" t="s">
         <v>1307</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -19246,7 +19247,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A440" s="4" t="s">
+      <c r="A440" s="7" t="s">
         <v>1308</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -19278,7 +19279,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A441" s="4" t="s">
+      <c r="A441" s="7" t="s">
         <v>1326</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -19310,7 +19311,7 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A442" s="4" t="s">
+      <c r="A442" s="7" t="s">
         <v>1331</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -22934,7 +22935,7 @@
         <v>979</v>
       </c>
       <c r="I569" s="5" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="K569" s="1" t="s">
         <v>29</v>
@@ -22942,22 +22943,22 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>979</v>
       </c>
       <c r="I570" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J570" s="1" t="s">
         <v>1680</v>
-      </c>
-      <c r="J570" s="1" t="s">
-        <v>1681</v>
       </c>
       <c r="K570" s="1" t="s">
         <v>29</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B543" workbookViewId="0">
-      <selection activeCell="H574" sqref="H574"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C569" sqref="C569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22946,7 +22946,7 @@
         <v>1677</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1633</v>
+        <v>25</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>1678</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -6576,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C569" sqref="C569"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="C573" sqref="C573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/negative/mysql_negative_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="1697">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6221,6 +6221,36 @@
   </si>
   <si>
     <t>Error: From line 1, column 12 to line 1, column 34: Table 'my_negative_332_00_schema1' not found (state=90001,code=90001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_571</t>
+  </si>
+  <si>
+    <t>创建同名schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create schema myneg_schema_571;create schema myneg_schema_571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema_name is exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative_572</t>
+  </si>
+  <si>
+    <t>创建同名表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table myneg_572(id int, name varchar(20), primary key(id));create table myneg_572(id int, name varchar(20), primary key(id))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table already exists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6590,10 +6620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K571"/>
+  <dimension ref="A1:K573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
+      <selection activeCell="I573" sqref="I573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23003,6 +23033,58 @@
         <v>1680</v>
       </c>
       <c r="K571" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A572" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A573" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K573" s="1" t="s">
         <v>27</v>
       </c>
     </row>
